--- a/gameTb/agent/table/基础业务.xlsx
+++ b/gameTb/agent/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="241">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -909,6 +909,26 @@
   <si>
     <t>退出编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始监听网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理服务器</t>
+  </si>
+  <si>
+    <t>结束退出程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络系统</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>应用配置</t>
   </si>
 </sst>
 </file>
@@ -1297,9 +1317,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -1353,6 +1373,20 @@
       </c>
       <c r="D3" s="8" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1857,6 +1891,40 @@
       </c>
       <c r="AI3" s="10" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
@@ -2386,11 +2454,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2820,6 +2888,46 @@
         <v>145</v>
       </c>
     </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">

--- a/gameTb/agent/table/基础业务.xlsx
+++ b/gameTb/agent/table/基础业务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7350" tabRatio="726" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="applicationEngine" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="243">
   <si>
     <t>ifSelectorId</t>
   </si>
@@ -929,6 +929,14 @@
   </si>
   <si>
     <t>应用配置</t>
+  </si>
+  <si>
+    <t>客户端断开连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端连接异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1530,9 +1538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1927,7 +1935,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
   </sheetData>
@@ -2456,9 +2484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
